--- a/project/uploads/93/split_output/目录.xlsx
+++ b/project/uploads/93/split_output/目录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A0389A-A939-4F70-83F6-D41A8F18682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC93766D-32DB-47BB-BD3D-7E585E2E410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{CDB4621D-AA6E-4A5E-97A3-DE918B180F0B}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{10D7722B-9A86-4582-9695-B9E26BFE8451}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -1958,9 +1958,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_模具设计式样书-参考" xfId="2" xr:uid="{E271E062-F4F1-40CB-BFE5-6A559BB1CC59}"/>
+    <cellStyle name="常规_模具设计式样书-参考" xfId="2" xr:uid="{63170552-DFF6-4D7D-882A-C7501058321E}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="样式 1" xfId="3" xr:uid="{92CFB64D-C93D-4D28-AFF4-F012D54B93D8}"/>
+    <cellStyle name="样式 1" xfId="3" xr:uid="{BAF68B21-559D-48B5-AABB-1A956D5B4598}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7570,21 +7570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9301F80-9724-4BE9-B8CF-754FEB34DC2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB7AB66-9B6D-4420-B7E2-4F10F7C5FE05}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="11.54296875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="54.36328125" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -7778,69 +7778,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="33" spans="1:2" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B18" location="'17'!A1" display="拉延模特殊要求" xr:uid="{8F4A9D51-0F73-4689-BFF7-C8FEC0EB56F7}"/>
-    <hyperlink ref="B19" location="'18'!A1" display="修边冲孔模要求" xr:uid="{6D8A804C-D582-4970-AE89-DBF4BF7D99EE}"/>
-    <hyperlink ref="B20" location="'19'!A1" display="翻边整形模特殊要求" xr:uid="{D4DDC50D-C413-4519-A671-5D4988BC3C43}"/>
-    <hyperlink ref="B2" location="'1-机台设备'!A1" display="机台设备" xr:uid="{A6DBC1CB-4237-4BF9-9E07-CDECC4BD569B}"/>
-    <hyperlink ref="B5" location="'4'!A1" display="模具限位、模具存放、模具缓冲、模具安全区、CH孔、运输连接板" xr:uid="{F67B9BA0-37D1-4016-B939-450E69592612}"/>
-    <hyperlink ref="B4" location="'3'!A1" display="基准孔、基准面、模具定位、中心标记、零贴、进出料支架" xr:uid="{A2244DFC-454B-41F0-9C1A-E088966C7DFC}"/>
-    <hyperlink ref="B6" location="'5'!A1" display="模具壁厚" xr:uid="{76B01A89-AE1E-4C7E-9A6B-18B73880769F}"/>
-    <hyperlink ref="B7" location="'6'!A1" display="模具起吊" xr:uid="{29EA8A01-82D7-4F28-9EFB-50BD17C6A046}"/>
-    <hyperlink ref="B8" location="'7'!A1" display="模具导向" xr:uid="{852973D0-817A-4FB6-817A-539893D17EB4}"/>
-    <hyperlink ref="B9" location="'8'!A1" display="模具压力源、压料板限位、压料板导向" xr:uid="{62F3CBB7-EEAB-431D-8937-C05FCF1DAFE6}"/>
-    <hyperlink ref="B10" location="'9'!A1" display="标准件供应商及特殊说明" xr:uid="{F105932F-2A88-478D-A37D-ADD22925BE2C}"/>
-    <hyperlink ref="B11" location="'10'!A1" display="贴字规范" xr:uid="{4145D4E6-2B56-455C-BF23-6685FD469EA5}"/>
-    <hyperlink ref="B12" location="'11'!A1" display="压板槽" xr:uid="{DFFD0EBF-DE8C-4D01-909B-C23D39D02A0B}"/>
-    <hyperlink ref="B14" location="'13'!A1" display="平衡块、压料板到底块、试棒、螺销钉、防脱落螺塞" xr:uid="{6B3D31F0-F83F-470C-8185-592C9C3BC71C}"/>
-    <hyperlink ref="B15" location="'14'!A1" display="零件标记" xr:uid="{5DFF354F-7FED-4741-A9AE-991E13B59F5D}"/>
-    <hyperlink ref="A1" location="'9'!A1" display="序号" xr:uid="{75501025-7534-45D7-AEF3-C53C6C80E531}"/>
-    <hyperlink ref="B16" location="'15'!A1" display="图层管理" xr:uid="{A166E1F2-CB02-4B8C-AC26-ACB15B3A5A8A}"/>
-    <hyperlink ref="B17" location="'16'!A1" display="电、气路" xr:uid="{459E12A3-9D80-40F6-A361-79F94E697FFB}"/>
-    <hyperlink ref="B3" location="'2-清单'!A1" display="项目清单" xr:uid="{757DCDBD-C120-445B-B481-B6EEAB85026C}"/>
-    <hyperlink ref="B23" location="'22'!Print_Area" display="自动线说明" xr:uid="{31EE1521-08C0-4C49-968A-2B8D09B60FE7}"/>
-    <hyperlink ref="B21" location="'20'!Print_Area" display="斜楔特殊要求" xr:uid="{6D79CDCB-136B-4459-ADCF-F35F05E7D887}"/>
-    <hyperlink ref="B13" location="'12'!Print_Area" display="材质选用" xr:uid="{E3EAD494-738D-41DC-8548-30B101B8FF4D}"/>
-    <hyperlink ref="B22" location="'21'!Print_Area" display="自动线落料模设计要求" xr:uid="{3BF97775-5F4F-40CD-BED1-5C8FC26EE54A}"/>
-    <hyperlink ref="B24" location="备件要求!A1" display="备件要求" xr:uid="{80C99310-A792-4D1A-8A0E-31BF764F891C}"/>
+    <hyperlink ref="B18" location="'17'!A1" display="拉延模特殊要求" xr:uid="{311C7F4E-4650-4C65-89AA-6E112ADA155F}"/>
+    <hyperlink ref="B19" location="'18'!A1" display="修边冲孔模要求" xr:uid="{9FA23489-3450-4F0A-B913-A5BF9164EA9C}"/>
+    <hyperlink ref="B20" location="'19'!A1" display="翻边整形模特殊要求" xr:uid="{3C7D9DEB-B074-445F-A57F-1FD6AD6442CF}"/>
+    <hyperlink ref="B2" location="'1-机台设备'!A1" display="机台设备" xr:uid="{DEE03911-52D8-4A07-8308-8DCE853B993A}"/>
+    <hyperlink ref="B5" location="'4'!A1" display="模具限位、模具存放、模具缓冲、模具安全区、CH孔、运输连接板" xr:uid="{B4C56CE1-8A29-4535-8280-3FB57520640D}"/>
+    <hyperlink ref="B4" location="'3'!A1" display="基准孔、基准面、模具定位、中心标记、零贴、进出料支架" xr:uid="{86298719-96A4-4853-85D4-AD307C92211D}"/>
+    <hyperlink ref="B6" location="'5'!A1" display="模具壁厚" xr:uid="{B38ED0F2-F9EC-40A3-9925-2FA5C10C8BBF}"/>
+    <hyperlink ref="B7" location="'6'!A1" display="模具起吊" xr:uid="{3DE0740A-8985-4721-B104-5D420B851CD4}"/>
+    <hyperlink ref="B8" location="'7'!A1" display="模具导向" xr:uid="{3FDD8942-1CB0-4D6E-BD68-3E31D79CF8C0}"/>
+    <hyperlink ref="B9" location="'8'!A1" display="模具压力源、压料板限位、压料板导向" xr:uid="{3944155D-413E-46A4-BA1D-A54C84C24551}"/>
+    <hyperlink ref="B10" location="'9'!A1" display="标准件供应商及特殊说明" xr:uid="{F377FF2E-917D-4A55-B96D-0559E2503A33}"/>
+    <hyperlink ref="B11" location="'10'!A1" display="贴字规范" xr:uid="{638B8F3F-C608-4689-A1F8-D5EFBD4AFE99}"/>
+    <hyperlink ref="B12" location="'11'!A1" display="压板槽" xr:uid="{FD93F8CB-AEF4-40AD-B417-B95112DB674B}"/>
+    <hyperlink ref="B14" location="'13'!A1" display="平衡块、压料板到底块、试棒、螺销钉、防脱落螺塞" xr:uid="{D63E5B2F-3CAB-45DA-974E-C2737558AD0F}"/>
+    <hyperlink ref="B15" location="'14'!A1" display="零件标记" xr:uid="{238CF2F2-6221-4DCB-A27C-E6662CC8B2D9}"/>
+    <hyperlink ref="A1" location="'9'!A1" display="序号" xr:uid="{6C16941E-5999-4D42-9AC3-BB59E7B203E6}"/>
+    <hyperlink ref="B16" location="'15'!A1" display="图层管理" xr:uid="{A32BCEED-283B-44EB-9936-FE08330EE47F}"/>
+    <hyperlink ref="B17" location="'16'!A1" display="电、气路" xr:uid="{92F7929F-D356-4703-A9AE-4DA84F7C589D}"/>
+    <hyperlink ref="B3" location="'2-清单'!A1" display="项目清单" xr:uid="{F0776AF6-491A-41FB-99BA-1542BBC5BFE8}"/>
+    <hyperlink ref="B23" location="'22'!Print_Area" display="自动线说明" xr:uid="{CF48A54A-B13A-4D22-AD04-AC09B110F548}"/>
+    <hyperlink ref="B21" location="'20'!Print_Area" display="斜楔特殊要求" xr:uid="{63CB52BE-05C8-41CD-A678-1A3AB7FF16C9}"/>
+    <hyperlink ref="B13" location="'12'!Print_Area" display="材质选用" xr:uid="{BF737502-CCC8-4135-B5D4-3689DCFC50F9}"/>
+    <hyperlink ref="B22" location="'21'!Print_Area" display="自动线落料模设计要求" xr:uid="{6BD1F2E2-0B31-4230-93B7-CE5578D7819E}"/>
+    <hyperlink ref="B24" location="备件要求!A1" display="备件要求" xr:uid="{7F87BC77-9805-445F-B3D3-DFD3F5B0F733}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
